--- a/Gant_PIST.xlsx
+++ b/Gant_PIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\IMT_Atlantique\Deuxieme_annee\deuxieme_semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Dropbox\Projets\Processeur ternaire\TelociDesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFD8283-3B4B-4F86-8228-6CDB8DB0EFCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30D1A4-499D-48A3-AF44-62B8AF832E92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{726A8461-12AF-4E29-8A5B-9CB9592768DB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="16395" xr2:uid="{726A8461-12AF-4E29-8A5B-9CB9592768DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>P</t>
   </si>
@@ -308,9 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -331,6 +328,9 @@
     <xf numFmtId="16" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,14 +654,14 @@
       <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -671,10 +671,10 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
@@ -687,20 +687,20 @@
       <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C3" s="1">
         <v>43544</v>
       </c>
@@ -748,7 +748,7 @@
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -757,291 +757,291 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="7" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="7" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="H6" s="7" t="s">
+      <c r="C6" s="9"/>
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="7" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="7" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="7" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H9" s="7" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="H10" s="7" t="s">
+      <c r="C10" s="9"/>
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="H11" s="7" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="Q12" s="7" t="s">
+      <c r="J12" s="5"/>
+      <c r="Q12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="Q13" s="7" t="s">
+      <c r="J13" s="5"/>
+      <c r="Q13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="8"/>
-      <c r="J14" s="6"/>
-      <c r="Q14" s="7" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="Q14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="H15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="Q15" s="7" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="Q15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="8"/>
-      <c r="J16" s="6"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="J17" s="6"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="8"/>
-      <c r="J18" s="6"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="8"/>
-      <c r="J19" s="6"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="H20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H21" s="8"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="H21" s="7"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>49</v>
@@ -1051,69 +1051,69 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D28" s="13" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="D28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="16" t="s">
         <v>28</v>
       </c>
     </row>
